--- a/UnderstandingPersona.xlsx
+++ b/UnderstandingPersona.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bala/Dropbox/Mac/Documents/Sessions/ProductEnggMindset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB436E68-82AF-FC40-B286-01DCA3BC4FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D23E5F7-9685-8C40-99BF-527C4F5B73FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{16C0F2B3-751E-5449-B55C-F83656989F35}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{16C0F2B3-751E-5449-B55C-F83656989F35}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample Template" sheetId="1" r:id="rId1"/>
     <sheet name="Exercise" sheetId="2" r:id="rId2"/>
+    <sheet name="MVP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>Understanding the Persona</t>
   </si>
@@ -283,15 +284,480 @@
   <si>
     <t>Customer Persona 3</t>
   </si>
+  <si>
+    <t>Delays
+Not Fresh
+Limited options to order
+Promotional Notifications</t>
+  </si>
+  <si>
+    <t>Familiarities with similar Apps: Zomato, Uber Eats
+How often they use similar apps: Daily
+Payment gateway exposure: CC/DC/UPI/Paytm
+Online procurement exposure: High</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Age/Generation:15 - 25
+Gender:Male, Female and others
+Location: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Town, Metro politon cities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Education: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Midlevel, engineering, graduation, PG</t>
+    </r>
+  </si>
+  <si>
+    <t>Age/Generation: 21-58
+Gender: Male, Female, Others
+Location: Urban, Metro/Non-Metro cities - India
+Education: Min. UG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age: 24-50
+Location:Urban, Metro/Non-Metro cities, Town - India
+Education:School passout
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familiarity - Low
+Use of similar Apps - High
+Quick Support button for orders
+Exposure to Payment Gateway - Low | Preferred Cash method most of the times
+Online procurement exposure - Low 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recomandations from friends &amp; Reletives:
+Promotions/Ads
+Ratings
+Brands
+Spl Events/Festivals:
+user experience:
+recommendations:
+Discounts:
+COD:
+Gifting / Share  a meal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer Service - Support 
+Delays 
+Quality 
+Limited Options to order
+Promotional Notifications 
+Freshness of an order 
+user exp
+quality
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Familiarities with similar Apps: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Swiggy, Zomato, Uber eat, Eat fit,  Food Panda.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+How often they use similar apps: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Weekly </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Payment gateway exposure: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mostly Cash, online,UPI payments, Wallets, Card payments, By cash.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Online procurement exposure:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Medium/low</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Guaranteed delivery
+Discounts
+Recommendations
+Ease of Use / Filters
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cash backs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cash on delivery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reward points</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Special discounts based on the usage
+special day offers( Teachers day, childrens, Bandh)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Feedbacks will help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Prime privilage.
+Discounts, cashbacks, Promotions.
+Ontime delivery / less delivery time.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Delays
+Freshness is matter
+Limited options to order
+Promotional Notifications
+Unavailabliity
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Delivary times, and delivary locations
+Number for phone calls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Additionals taxes
+Unseen charges
+based on distance delivery charges
+Location contraints.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Want best Quality all the time
+Delivery: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Some times it is ok to have delay with saving some delivery changes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Comparision
+Sharing the favorite order among friends and Family 
+Gifting / Share  a meal 
+multi lingual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Sodexho options</t>
+    </r>
+  </si>
+  <si>
+    <t>One click order option
+multi lingual
+Delivery ontime
+return policies, if food is not good
+good brands
+good payment options
+quick delivery options
+easy checkout options
+Good customer support
+Sodexho options
+Ordering from multiple restaurents.</t>
+  </si>
+  <si>
+    <t>Minimum Viable Product Planning</t>
+  </si>
+  <si>
+    <t>Pain Killers</t>
+  </si>
+  <si>
+    <t>70-80%</t>
+  </si>
+  <si>
+    <t>5-10%</t>
+  </si>
+  <si>
+    <t>Gain creators</t>
+  </si>
+  <si>
+    <t>Market positioning</t>
+  </si>
+  <si>
+    <t>MVP1</t>
+  </si>
+  <si>
+    <t>MVP2</t>
+  </si>
+  <si>
+    <t>MVP3</t>
+  </si>
+  <si>
+    <t>Share it to a friend
+Gifting a meal
+Promotional Notifications
+Reward points
+Discounts - Volume based, Frequency based, special
+Deliver anywhere
+Deliver Perishable vs Non-perishable items differently
+Prime subscription
+ - Pay later
+ - Dedicated support
+Filter by stores, category, item, occasions
+Sort
+Payment - CC/DC/UPI/Paytm/Gpay/COD/Wallets/Netbanking/Sodexo/Crypto
+Payment calculation - transparent break up
+Guaranteed delivery penalty policy
+Multi-lingual
+Reviews / Ratings
+Tik tok like video sharing
+Integration with social media
+Pickup and drop from anywhere (friends / relatives)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -327,6 +793,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -354,7 +827,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -377,30 +850,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D955206-F62B-F147-807D-6F685E3EEE14}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -740,7 +1269,7 @@
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -754,54 +1283,54 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:4" ht="103" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" spans="1:4" ht="103" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" spans="1:4" ht="120" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="24" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -812,52 +1341,52 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -871,101 +1400,125 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A75DA9-BEDC-2F46-BF3D-43453186B28B}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.1640625" customWidth="1"/>
     <col min="2" max="2" width="47.1640625" customWidth="1"/>
-    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" customWidth="1"/>
+    <col min="6" max="6" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-    </row>
-    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="16"/>
+    </row>
+    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" ht="86" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="103" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="373" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="103" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="239" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="69" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="188" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="205" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="205" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="24" x14ac:dyDescent="0.3">
+      <c r="C8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
@@ -973,37 +1526,37 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1013,4 +1566,64 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0B0E69-E93D-CD4A-B865-E787A6782D3D}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>